--- a/purchase_request_site/excel_templates/expense_report_template.xlsx
+++ b/purchase_request_site/excel_templates/expense_report_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajpa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajpa\Purchase_Request_Site\purchase_request_site\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56108D6-3786-4FD7-B16D-30994860685A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D58FE-4852-498B-BED3-6B8291C1591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3750" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,6 +530,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85396</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275239</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>232540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF2CA13-4754-9861-F7EB-F315CBC6AABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4276396" y="3817214"/>
+          <a:ext cx="925567" cy="639171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="571500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5591E8DB-209D-4CB0-825D-98EC3A7D85CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5820103" y="3901965"/>
+          <a:ext cx="781050" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -730,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1269,6 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,6 +2306,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2214,6 +2320,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a264f36-df5c-4c23-a2b7-7f3f30b83ede">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100351D1D23F4A58043BBE384EF1CC13A0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="551746a8f748353412c924590d0cc7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a264f36-df5c-4c23-a2b7-7f3f30b83ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9757548110673be55767ddfdfb996e4e" ns2:_="">
     <xsd:import namespace="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
@@ -2403,16 +2519,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a264f36-df5c-4c23-a2b7-7f3f30b83ede">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05733098-B355-4893-B1C3-03693DC8BD5A}">
   <ds:schemaRefs>
@@ -2422,6 +2528,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E525EF-B04A-472D-A8C2-E7BAB8EF13D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEC3260-1CA7-4D88-8FD6-50B5E2D6434D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2437,20 +2559,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E525EF-B04A-472D-A8C2-E7BAB8EF13D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/purchase_request_site/excel_templates/expense_report_template.xlsx
+++ b/purchase_request_site/excel_templates/expense_report_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajpa\Purchase_Request_Site\purchase_request_site\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajpandya/workspace/purchase-request-site/purchase_request_site/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D58FE-4852-498B-BED3-6B8291C1591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70C285-0CB3-EB40-B814-74EEFF7924DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41120" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -512,6 +512,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,23 +839,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -863,7 +866,7 @@
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -874,7 +877,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -886,10 +889,10 @@
       <c r="F3" s="47"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="45"/>
     </row>
-    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -921,7 +924,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -951,11 +954,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="31"/>
       <c r="D7" s="39">
         <v>0</v>
@@ -981,7 +984,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -1011,11 +1014,11 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <v>4</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="31"/>
       <c r="D9" s="39">
         <v>0</v>
@@ -1041,7 +1044,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <v>5</v>
       </c>
@@ -1071,7 +1074,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1101,7 +1104,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1131,7 +1134,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -1191,7 +1194,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -1221,7 +1224,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="D17" s="21"/>
@@ -1260,18 +1263,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
     </row>
-    <row r="21" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="24"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1287,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
         <v>18</v>
@@ -1292,8 +1295,8 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
@@ -1303,12 +1306,12 @@
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
         <v>20</v>
       </c>
@@ -1318,983 +1321,983 @@
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -2311,25 +2314,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a264f36-df5c-4c23-a2b7-7f3f30b83ede">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100351D1D23F4A58043BBE384EF1CC13A0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="551746a8f748353412c924590d0cc7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a264f36-df5c-4c23-a2b7-7f3f30b83ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9757548110673be55767ddfdfb996e4e" ns2:_="">
     <xsd:import namespace="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
@@ -2519,10 +2503,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a264f36-df5c-4c23-a2b7-7f3f30b83ede">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05733098-B355-4893-B1C3-03693DC8BD5A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEC3260-1CA7-4D88-8FD6-50B5E2D6434D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2544,19 +2557,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEC3260-1CA7-4D88-8FD6-50B5E2D6434D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05733098-B355-4893-B1C3-03693DC8BD5A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/purchase_request_site/excel_templates/expense_report_template.xlsx
+++ b/purchase_request_site/excel_templates/expense_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajpandya/workspace/purchase-request-site/purchase_request_site/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70C285-0CB3-EB40-B814-74EEFF7924DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5414434-4289-1248-9320-AE4E7EF3FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41120" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,11 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +165,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -202,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +214,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
         <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -380,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -399,37 +406,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,7 +431,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -460,7 +445,7 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,15 +482,18 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,8 +501,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,14 +549,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85396</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>79473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>275239</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>232540</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>232539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -600,7 +610,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>157655</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>164224</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="571500"/>
@@ -837,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:N1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -856,65 +866,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="45"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="5"/>
@@ -925,427 +935,826 @@
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+      <c r="A6" s="24">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="40">
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
         <f>F6+H6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f>0.13*F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="39">
-        <v>0</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
+      <c r="B7" s="43"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="31">
+        <v>0</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
         <f t="shared" ref="G7:G10" si="0">F7+H7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" ref="H7:H12" si="1">0.13*F7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="32">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="47">
+        <v>0</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="39">
-        <v>0</v>
-      </c>
-      <c r="E9" s="39">
-        <v>0</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0</v>
-      </c>
-      <c r="G9" s="41">
+      <c r="B9" s="43"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="47">
+        <v>0</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39">
-        <v>0</v>
-      </c>
-      <c r="E11" s="39">
-        <v>0</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0</v>
-      </c>
-      <c r="G11" s="41">
-        <f t="shared" ref="G11:G15" si="2">F11+H11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <f t="shared" ref="G11:G30" si="2">F11+H11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="47">
+        <v>0</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="24">
         <v>8</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" ref="H13:H15" si="3">0.13*F13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="50">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="24">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="50">
+        <v>0</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="24">
         <v>10</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="50">
+        <v>0</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0</v>
+      </c>
+      <c r="F15" s="50">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
+        <v>0</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="24">
+        <v>11</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="50">
+        <v>0</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>12</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="50">
+        <v>0</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="50">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18">
-        <f>SUM(D6:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <f>SUM(E6:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <f>SUM(F6:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(G6:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <f>SUM(H6:H15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="F17" s="22" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="50">
+        <v>0</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
         <v>14</v>
       </c>
-      <c r="G17" s="23">
-        <f>G16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-    </row>
-    <row r="21" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="50">
+        <v>0</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19" s="50">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="50">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>15</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="50">
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>16</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="55">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>18</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0</v>
+      </c>
+      <c r="G23" s="55">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>20</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="50">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="F25" s="50">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55">
+        <v>0</v>
+      </c>
+      <c r="H25" s="50">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>21</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="50">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="G26" s="55">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>22</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="50">
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>23</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="50">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50">
+        <v>0</v>
+      </c>
+      <c r="F28" s="50">
+        <v>0</v>
+      </c>
+      <c r="G28" s="55">
+        <v>0</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>24</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="50">
+        <v>0</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0</v>
+      </c>
+      <c r="F29" s="50">
+        <v>0</v>
+      </c>
+      <c r="G29" s="55">
+        <v>0</v>
+      </c>
+      <c r="H29" s="50">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>25</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="50">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>0</v>
+      </c>
+      <c r="F30" s="50">
+        <v>0</v>
+      </c>
+      <c r="G30" s="55">
+        <v>0</v>
+      </c>
+      <c r="H30" s="50">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54">
+        <f>SUM(D6:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="54">
+        <f>SUM(E6:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="54">
+        <f>SUM(F6:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <f>SUM(G6:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="54">
+        <f>SUM(H6:H30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="F32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="15">
+        <f>G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+    <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2298,14 +2707,29 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A42:F42"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -2314,6 +2738,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a264f36-df5c-4c23-a2b7-7f3f30b83ede">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100351D1D23F4A58043BBE384EF1CC13A0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="551746a8f748353412c924590d0cc7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a264f36-df5c-4c23-a2b7-7f3f30b83ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9757548110673be55767ddfdfb996e4e" ns2:_="">
     <xsd:import namespace="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
@@ -2503,39 +2946,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a264f36-df5c-4c23-a2b7-7f3f30b83ede">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEC3260-1CA7-4D88-8FD6-50B5E2D6434D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05733098-B355-4893-B1C3-03693DC8BD5A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2557,9 +2971,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05733098-B355-4893-B1C3-03693DC8BD5A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEC3260-1CA7-4D88-8FD6-50B5E2D6434D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a264f36-df5c-4c23-a2b7-7f3f30b83ede"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>